--- a/python/math/polynomial/10-curve-fitting.xlsx
+++ b/python/math/polynomial/10-curve-fitting.xlsx
@@ -747,7 +747,7 @@
   <dimension ref="A1:XFD47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M26" activeCellId="0" sqref="M26"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1232,7 +1232,7 @@
       <c r="A25" s="4"/>
       <c r="D25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="XFD25" s="0"/>
+      <c r="XFD25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4"/>
@@ -1482,7 +1482,7 @@
   <dimension ref="A1:M1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="I31" activeCellId="0" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1494,12 +1494,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="2.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="10.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="2.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="2.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0"/>
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
       <c r="D1" s="4"/>
       <c r="G1" s="4"/>
       <c r="J1" s="4"/>
@@ -1508,7 +1509,7 @@
       <c r="M1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1531,9 +1532,9 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0"/>
-      <c r="B3" s="0"/>
-      <c r="C3" s="0"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="4"/>
       <c r="E3" s="11" t="s">
         <v>9</v>
@@ -1550,9 +1551,9 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0"/>
-      <c r="B4" s="0"/>
-      <c r="C4" s="0"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="4"/>
       <c r="G4" s="4"/>
       <c r="J4" s="4"/>
@@ -1561,9 +1562,9 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0"/>
-      <c r="B5" s="0"/>
-      <c r="C5" s="0"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="4"/>
       <c r="E5" s="7" t="s">
         <v>12</v>
@@ -1578,9 +1579,9 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0"/>
-      <c r="B6" s="0"/>
-      <c r="C6" s="0"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="4"/>
       <c r="E6" s="24" t="n">
         <f aca="false" t="array" ref="E6:F6">LINEST(C15:C27,B15:B27)</f>
@@ -1596,9 +1597,9 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="4"/>
       <c r="G7" s="4"/>
       <c r="J7" s="4"/>
@@ -1607,7 +1608,7 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0"/>
+      <c r="A8" s="2"/>
       <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
@@ -1639,9 +1640,9 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0"/>
-      <c r="B9" s="0"/>
-      <c r="C9" s="0"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="4"/>
       <c r="E9" s="16" t="s">
         <v>13</v>
@@ -1666,9 +1667,9 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0"/>
-      <c r="B10" s="0"/>
-      <c r="C10" s="0"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="20" t="s">
@@ -1687,9 +1688,9 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="4"/>
       <c r="G11" s="4"/>
       <c r="J11" s="4"/>
@@ -1702,9 +1703,9 @@
       <c r="M11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
-      <c r="B12" s="0"/>
-      <c r="C12" s="0"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="4"/>
       <c r="G12" s="4"/>
       <c r="J12" s="4"/>
@@ -2187,9 +2188,9 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
-      <c r="B28" s="0"/>
-      <c r="C28" s="0"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
       <c r="D28" s="4"/>
       <c r="G28" s="4"/>
       <c r="J28" s="4"/>

--- a/python/math/polynomial/10-curve-fitting.xlsx
+++ b/python/math/polynomial/10-curve-fitting.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="linest-1" sheetId="1" state="visible" r:id="rId3"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="54">
   <si>
     <t xml:space="preserve">Straight Line</t>
   </si>
@@ -141,19 +141,31 @@
     <t xml:space="preserve">Formula</t>
   </si>
   <si>
-    <t xml:space="preserve">Linear Minimum Example</t>
+    <t xml:space="preserve">Linear Interpolation Example</t>
   </si>
   <si>
     <t xml:space="preserve">A x C = B</t>
   </si>
   <si>
+    <t xml:space="preserve">A =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x1^0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x1^1</t>
+  </si>
+  <si>
     <t xml:space="preserve">≡</t>
   </si>
   <si>
     <t xml:space="preserve">C = Aˉ¹ x B</t>
   </si>
   <si>
-    <t xml:space="preserve">A =</t>
+    <t xml:space="preserve">x2^0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x2^1</t>
   </si>
   <si>
     <t xml:space="preserve">C =</t>
@@ -168,10 +180,13 @@
     <t xml:space="preserve">Polynomial Result</t>
   </si>
   <si>
-    <t xml:space="preserve">Second Order Minimum Example</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Third Order Minimum Example</t>
+    <t xml:space="preserve">found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Order Interpolation Example</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Third Order Interpolation Example</t>
   </si>
 </sst>
 </file>
@@ -371,7 +386,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -528,6 +543,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -552,8 +571,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -747,7 +766,7 @@
   <dimension ref="A1:XFD47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1479,10 +1498,10 @@
     <tabColor rgb="FF90CAF9"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M1048576"/>
+  <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I31" activeCellId="0" sqref="I31"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1494,7 +1513,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="2.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="10.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="2.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="2.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="2.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1506,7 +1525,6 @@
       <c r="J1" s="4"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
@@ -1529,7 +1547,6 @@
         <v>2</v>
       </c>
       <c r="L2" s="5"/>
-      <c r="M2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
@@ -1548,7 +1565,6 @@
         <v>11</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
@@ -1559,7 +1575,6 @@
       <c r="J4" s="4"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
@@ -1576,7 +1591,6 @@
       <c r="J5" s="4"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
@@ -1594,7 +1608,6 @@
       <c r="J6" s="4"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
@@ -1605,7 +1618,6 @@
       <c r="J7" s="4"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
@@ -1637,7 +1649,6 @@
         <f aca="false" t="array" ref="L8:L11">TRANSPOSE(LINEST(C15:C27,B15:B27^{1,2,3}))</f>
         <v>-2.05886732088255E-016</v>
       </c>
-      <c r="M8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
@@ -1664,7 +1675,6 @@
       <c r="L9" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="M9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
@@ -1685,7 +1695,6 @@
       <c r="L10" s="29" t="n">
         <v>3.99999999999997</v>
       </c>
-      <c r="M10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
@@ -1700,7 +1709,6 @@
       <c r="L11" s="30" t="n">
         <v>5.00000000000009</v>
       </c>
-      <c r="M11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
@@ -1711,7 +1719,6 @@
       <c r="J12" s="4"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="6" t="s">
@@ -2196,7 +2203,6 @@
       <c r="J28" s="4"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="2"/>
     </row>
     <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2785,7 +2791,7 @@
   <dimension ref="A1:AF1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2808,6 +2814,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="31"/>
+      <c r="D2" s="39"/>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="23"/>
@@ -2825,14 +2832,30 @@
       <c r="C5" s="23" t="s">
         <v>39</v>
       </c>
+      <c r="D5" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="23"/>
       <c r="B6" s="34" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2856,26 +2879,26 @@
         <v>49</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="39" t="n">
-        <f aca="false">1</f>
+        <v>40</v>
+      </c>
+      <c r="E9" s="40" t="n">
+        <f aca="false">B9^0</f>
         <v>1</v>
       </c>
-      <c r="F9" s="40" t="n">
+      <c r="F9" s="41" t="n">
         <f aca="false">B9^1</f>
         <v>11</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="42" t="s">
         <v>13</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="41" t="n">
+        <v>48</v>
+      </c>
+      <c r="J9" s="42" t="n">
         <f aca="false">C9</f>
         <v>49</v>
       </c>
@@ -2889,19 +2912,19 @@
         <v>53</v>
       </c>
       <c r="D10" s="23"/>
-      <c r="E10" s="39" t="n">
+      <c r="E10" s="40" t="n">
         <f aca="false">B10^0</f>
         <v>1</v>
       </c>
-      <c r="F10" s="40" t="n">
+      <c r="F10" s="41" t="n">
         <f aca="false">B10^1</f>
         <v>12</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="42" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="33"/>
-      <c r="J10" s="41" t="n">
+      <c r="J10" s="42" t="n">
         <f aca="false">C10</f>
         <v>53</v>
       </c>
@@ -2913,18 +2936,18 @@
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="34" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="42" t="n">
+        <v>49</v>
+      </c>
+      <c r="E12" s="43" t="n">
         <f aca="false" t="array" ref="E12:E13">MMULT(MINVERSE(E9:F10),J9:J10)</f>
         <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E13" s="42" t="n">
+      <c r="E13" s="43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2958,7 +2981,7 @@
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
       <c r="B15" s="31" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
@@ -3097,7 +3120,7 @@
       <c r="B19" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="43" t="n">
+      <c r="C19" s="44" t="n">
         <f aca="false">E12</f>
         <v>5</v>
       </c>
@@ -3136,7 +3159,7 @@
       <c r="B20" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="43" t="n">
+      <c r="C20" s="44" t="n">
         <f aca="false">E13</f>
         <v>4</v>
       </c>
@@ -3203,13 +3226,13 @@
         <v>30</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D22" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -3428,7 +3451,7 @@
   <dimension ref="A1:AF1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
+      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3449,10 +3472,11 @@
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="23"/>
       <c r="B2" s="31" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C2" s="31"/>
-      <c r="D2" s="45"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="46"/>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="23"/>
@@ -3474,10 +3498,10 @@
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="23"/>
       <c r="B6" s="34" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3501,30 +3525,30 @@
         <v>345</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="39" t="n">
-        <f aca="false">1</f>
+        <v>40</v>
+      </c>
+      <c r="E9" s="40" t="n">
+        <f aca="false">B9^0</f>
         <v>1</v>
       </c>
-      <c r="F9" s="46" t="n">
+      <c r="F9" s="47" t="n">
         <f aca="false">B9^1</f>
         <v>10</v>
       </c>
-      <c r="G9" s="40" t="n">
+      <c r="G9" s="41" t="n">
         <f aca="false">B9^2</f>
         <v>100</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="42" t="s">
         <v>13</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="41" t="n">
+        <v>48</v>
+      </c>
+      <c r="K9" s="42" t="n">
         <f aca="false">C9</f>
         <v>345</v>
       </c>
@@ -3538,22 +3562,22 @@
         <v>412</v>
       </c>
       <c r="D10" s="23"/>
-      <c r="E10" s="39" t="n">
+      <c r="E10" s="40" t="n">
         <f aca="false">B10^0</f>
         <v>1</v>
       </c>
-      <c r="F10" s="46" t="n">
+      <c r="F10" s="47" t="n">
         <f aca="false">B10^1</f>
         <v>11</v>
       </c>
-      <c r="G10" s="40" t="n">
+      <c r="G10" s="41" t="n">
         <f aca="false">B10^2</f>
         <v>121</v>
       </c>
-      <c r="I10" s="41" t="s">
+      <c r="I10" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="41" t="n">
+      <c r="K10" s="42" t="n">
         <f aca="false">C10</f>
         <v>412</v>
       </c>
@@ -3567,22 +3591,22 @@
         <v>485</v>
       </c>
       <c r="D11" s="23"/>
-      <c r="E11" s="39" t="n">
+      <c r="E11" s="40" t="n">
         <f aca="false">B11^0</f>
         <v>1</v>
       </c>
-      <c r="F11" s="46" t="n">
+      <c r="F11" s="47" t="n">
         <f aca="false">B11^1</f>
         <v>12</v>
       </c>
-      <c r="G11" s="40" t="n">
+      <c r="G11" s="41" t="n">
         <f aca="false">B11^2</f>
         <v>144</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="41" t="n">
+      <c r="K11" s="42" t="n">
         <f aca="false">C11</f>
         <v>485</v>
       </c>
@@ -3594,12 +3618,12 @@
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="34" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="42" t="n">
+        <v>49</v>
+      </c>
+      <c r="E13" s="43" t="n">
         <f aca="false" t="array" ref="E13:E15">MMULT(MINVERSE(E9:G11),K9:K11)</f>
         <v>5</v>
       </c>
@@ -3625,7 +3649,7 @@
       <c r="AF13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="42" t="n">
+      <c r="E14" s="43" t="n">
         <v>4</v>
       </c>
       <c r="M14" s="2"/>
@@ -3650,7 +3674,7 @@
       <c r="AF14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="42" t="n">
+      <c r="E15" s="43" t="n">
         <v>3</v>
       </c>
       <c r="M15" s="2"/>
@@ -3703,7 +3727,7 @@
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
       <c r="B17" s="31" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
@@ -3841,7 +3865,7 @@
       <c r="B21" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="43" t="n">
+      <c r="C21" s="44" t="n">
         <f aca="false">E13</f>
         <v>5</v>
       </c>
@@ -3880,7 +3904,7 @@
       <c r="B22" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="43" t="n">
+      <c r="C22" s="44" t="n">
         <f aca="false">E14</f>
         <v>4</v>
       </c>
@@ -3919,7 +3943,7 @@
       <c r="B23" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="43" t="n">
+      <c r="C23" s="44" t="n">
         <f aca="false">E15</f>
         <v>3</v>
       </c>
@@ -3985,13 +4009,13 @@
         <v>30</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D25" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -4198,8 +4222,8 @@
   </sheetPr>
   <dimension ref="A1:AF1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K55" activeCellId="0" sqref="K55"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4221,10 +4245,10 @@
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="23"/>
       <c r="B2" s="31" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C2" s="31"/>
-      <c r="D2" s="45"/>
+      <c r="D2" s="39"/>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="23"/>
@@ -4246,10 +4270,10 @@
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="23"/>
       <c r="B6" s="34" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4267,147 +4291,147 @@
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="23"/>
       <c r="B9" s="9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C9" s="10" t="n">
-        <v>5</v>
+        <v>1742</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="39" t="n">
-        <f aca="false">1</f>
+        <v>40</v>
+      </c>
+      <c r="E9" s="40" t="n">
+        <f aca="false">B9^0</f>
         <v>1</v>
       </c>
-      <c r="F9" s="46" t="n">
+      <c r="F9" s="47" t="n">
         <f aca="false">B9^1</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="46" t="n">
+        <v>9</v>
+      </c>
+      <c r="G9" s="47" t="n">
         <f aca="false">B9^2</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="40" t="n">
+        <v>81</v>
+      </c>
+      <c r="H9" s="41" t="n">
         <f aca="false">B9^3</f>
-        <v>0</v>
+        <v>729</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="42" t="s">
         <v>13</v>
       </c>
       <c r="K9" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="41" t="n">
+        <v>48</v>
+      </c>
+      <c r="L9" s="42" t="n">
         <f aca="false">C9</f>
-        <v>5</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="23"/>
       <c r="B10" s="9" t="n">
-        <f aca="false">B9+1</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C10" s="10" t="n">
-        <v>14</v>
+        <v>2345</v>
       </c>
       <c r="D10" s="23"/>
-      <c r="E10" s="39" t="n">
+      <c r="E10" s="40" t="n">
         <f aca="false">B10^0</f>
         <v>1</v>
       </c>
-      <c r="F10" s="46" t="n">
+      <c r="F10" s="47" t="n">
         <f aca="false">B10^1</f>
-        <v>1</v>
-      </c>
-      <c r="G10" s="46" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" s="47" t="n">
         <f aca="false">B10^2</f>
-        <v>1</v>
-      </c>
-      <c r="H10" s="40" t="n">
+        <v>100</v>
+      </c>
+      <c r="H10" s="41" t="n">
         <f aca="false">B10^3</f>
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I10" s="33"/>
-      <c r="J10" s="41" t="s">
+      <c r="J10" s="42" t="s">
         <v>12</v>
       </c>
       <c r="K10" s="33"/>
-      <c r="L10" s="41" t="n">
-        <v>14</v>
+      <c r="L10" s="42" t="n">
+        <f aca="false">C10</f>
+        <v>2345</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="23"/>
       <c r="B11" s="9" t="n">
-        <f aca="false">B10+1</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C11" s="10" t="n">
-        <v>41</v>
+        <v>3074</v>
       </c>
       <c r="D11" s="23"/>
-      <c r="E11" s="39" t="n">
+      <c r="E11" s="40" t="n">
         <f aca="false">B11^0</f>
         <v>1</v>
       </c>
-      <c r="F11" s="46" t="n">
+      <c r="F11" s="47" t="n">
         <f aca="false">B11^1</f>
-        <v>2</v>
-      </c>
-      <c r="G11" s="46" t="n">
+        <v>11</v>
+      </c>
+      <c r="G11" s="47" t="n">
         <f aca="false">B11^2</f>
-        <v>4</v>
-      </c>
-      <c r="H11" s="40" t="n">
+        <v>121</v>
+      </c>
+      <c r="H11" s="41" t="n">
         <f aca="false">B11^3</f>
-        <v>8</v>
+        <v>1331</v>
       </c>
       <c r="I11" s="33"/>
-      <c r="J11" s="41" t="s">
+      <c r="J11" s="42" t="s">
         <v>15</v>
       </c>
       <c r="K11" s="33"/>
-      <c r="L11" s="41" t="n">
-        <v>41</v>
+      <c r="L11" s="42" t="n">
+        <f aca="false">C11</f>
+        <v>3074</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="23"/>
       <c r="B12" s="9" t="n">
-        <f aca="false">B11+1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C12" s="10" t="n">
-        <v>98</v>
+        <v>3941</v>
       </c>
       <c r="D12" s="23"/>
-      <c r="E12" s="39" t="n">
+      <c r="E12" s="40" t="n">
         <f aca="false">B12^0</f>
         <v>1</v>
       </c>
-      <c r="F12" s="46" t="n">
+      <c r="F12" s="47" t="n">
         <f aca="false">B12^1</f>
-        <v>3</v>
-      </c>
-      <c r="G12" s="46" t="n">
+        <v>12</v>
+      </c>
+      <c r="G12" s="47" t="n">
         <f aca="false">B12^2</f>
-        <v>9</v>
-      </c>
-      <c r="H12" s="40" t="n">
+        <v>144</v>
+      </c>
+      <c r="H12" s="41" t="n">
         <f aca="false">B12^3</f>
-        <v>27</v>
+        <v>1728</v>
       </c>
       <c r="I12" s="33"/>
-      <c r="J12" s="41" t="s">
+      <c r="J12" s="42" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="33"/>
-      <c r="L12" s="41" t="n">
-        <v>98</v>
+      <c r="L12" s="42" t="n">
+        <f aca="false">C12</f>
+        <v>3941</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4417,29 +4441,29 @@
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="34" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="42" t="n">
+        <v>49</v>
+      </c>
+      <c r="E14" s="43" t="n">
         <f aca="false" t="array" ref="E14:E17">MMULT(MINVERSE(E9:H12),L9:L12)</f>
         <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="42" t="n">
-        <v>3.99999999999997</v>
+      <c r="E15" s="43" t="n">
+        <v>4.00000000001455</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="42" t="n">
-        <v>3.00000000000001</v>
+      <c r="E16" s="43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E17" s="42" t="n">
-        <v>2</v>
+      <c r="E17" s="43" t="n">
+        <v>1.99999999999994</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4470,7 +4494,7 @@
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
       <c r="B19" s="31" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="32"/>
@@ -4607,7 +4631,7 @@
       <c r="B23" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="43" t="n">
+      <c r="C23" s="44" t="n">
         <f aca="false">E14</f>
         <v>5</v>
       </c>
@@ -4646,9 +4670,9 @@
       <c r="B24" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="43" t="n">
+      <c r="C24" s="44" t="n">
         <f aca="false">E15</f>
-        <v>3.99999999999997</v>
+        <v>4.00000000001455</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
@@ -4685,9 +4709,9 @@
       <c r="B25" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="43" t="n">
+      <c r="C25" s="44" t="n">
         <f aca="false">E16</f>
-        <v>3.00000000000001</v>
+        <v>3</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
@@ -4724,9 +4748,9 @@
       <c r="B26" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="43" t="n">
+      <c r="C26" s="44" t="n">
         <f aca="false">E17</f>
-        <v>2</v>
+        <v>1.99999999999994</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
@@ -4789,13 +4813,13 @@
         <v>30</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D28" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -4862,7 +4886,7 @@
       </c>
       <c r="C30" s="10" t="n">
         <f aca="false">$C$23+$C$24*B30+$C$25*B30^2+$C$26*B30^3</f>
-        <v>350</v>
+        <v>350.000000000066</v>
       </c>
       <c r="D30" s="38" t="str">
         <f aca="false">"a + b."&amp;B30&amp;" + c."&amp;B30&amp;"² + d."&amp;B30&amp;"³"</f>
@@ -4895,7 +4919,7 @@
       </c>
       <c r="C31" s="10" t="n">
         <f aca="false">$C$23+$C$24*B31+$C$25*B31^2+$C$26*B31^3</f>
-        <v>3941</v>
+        <v>3941.00000000008</v>
       </c>
       <c r="D31" s="38" t="str">
         <f aca="false">"a + b."&amp;B31&amp;" + c."&amp;B31&amp;"² + d."&amp;B31&amp;"³"</f>
